--- a/Requirement_Analysis/요구사항 정의서_명세서.xlsx
+++ b/Requirement_Analysis/요구사항 정의서_명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hanino\Desktop\Documents\Vocational_training\TeamProject\git\Requirement_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F59AA9-E9A1-4547-824D-310E35502963}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6944585B-1250-47E5-BFD6-0460E9F7AAB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17340" yWindow="1575" windowWidth="20400" windowHeight="16080" activeTab="1" xr2:uid="{75874DD5-9C79-4FFA-A134-FDEB5CD24794}"/>
+    <workbookView xWindow="17280" yWindow="1950" windowWidth="20400" windowHeight="16080" activeTab="1" xr2:uid="{75874DD5-9C79-4FFA-A134-FDEB5CD24794}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 정의서" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="210">
   <si>
     <t>인터페이스 요구 사항 검토서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -899,6 +899,101 @@
   </si>
   <si>
     <t>고객은 사이트에서 작성된 공지를 조회할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추후 변경사항이나 기능 도입을 위해 융통성 있게 설계 하여야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처음 이용하는 사람을 위해 이용방법에 대한 설명은 이해하기 쉬워야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동경, 한인우, 이선민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임영훈, 윤도현, 주민기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원담당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색담당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원담당팀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색담당팀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 상세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객은 공지사항 목록에서 상세 공지내용을 확인할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지 일시, 공지내용, 공지사항명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 공지제목
+ - 공지내용
+ - 공지일시
+ - 고객은 공지사항 목록에서 상세 공지내용을 확인할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항 작성중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 추후 업데이트, 수정, 추가 등의 기능 도입을 위해 설계시 융통성 있게 설계하여야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 처음 이용하는 사람들이 쉽게 이용할 수 있도록 UI는 간략하고 직관적으로 작성한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1093,7 +1188,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1154,6 +1249,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1169,17 +1270,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1196,17 +1294,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1522,10 +1626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62DAE64-FB29-4C0C-B100-E45A96420E72}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1541,28 +1645,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
@@ -1640,7 +1744,7 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="22" t="s">
         <v>68</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -1662,7 +1766,7 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="9" t="s">
         <v>82</v>
       </c>
@@ -1682,7 +1786,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="22" t="s">
         <v>84</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -1706,7 +1810,7 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="9" t="s">
         <v>69</v>
       </c>
@@ -1728,7 +1832,7 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="9" t="s">
         <v>70</v>
       </c>
@@ -1748,7 +1852,7 @@
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="22" t="s">
         <v>87</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -1770,7 +1874,7 @@
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="9" t="s">
         <v>88</v>
       </c>
@@ -1790,8 +1894,8 @@
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="20" t="s">
+      <c r="A15" s="26"/>
+      <c r="B15" s="22" t="s">
         <v>67</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -1810,8 +1914,8 @@
       <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="11" t="s">
         <v>95</v>
       </c>
@@ -1828,7 +1932,7 @@
       <c r="H16" s="12"/>
     </row>
     <row r="17" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="9" t="s">
         <v>46</v>
       </c>
@@ -1850,7 +1954,7 @@
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="9" t="s">
         <v>127</v>
       </c>
@@ -1870,7 +1974,7 @@
       <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="9" t="s">
         <v>124</v>
       </c>
@@ -1888,7 +1992,7 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="22" t="s">
         <v>71</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -1910,7 +2014,7 @@
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="9" t="s">
         <v>100</v>
       </c>
@@ -1930,16 +2034,16 @@
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="9" t="s">
+      <c r="B22" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="C22" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="20" t="s">
         <v>125</v>
       </c>
       <c r="E22" s="6" t="s">
@@ -1952,55 +2056,141 @@
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>73</v>
-      </c>
+      <c r="A23" s="23"/>
       <c r="B23" s="9" t="s">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>106</v>
+        <v>202</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="3"/>
+      <c r="A24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+    </row>
+    <row r="28" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A29" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29" s="19"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A30" s="40"/>
+      <c r="B30" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="F30" s="19"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:H27"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A12"/>
@@ -2014,10 +2204,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF9E22A-6541-4317-9471-B936723F705D}">
-  <dimension ref="A1:E161"/>
+  <dimension ref="A1:H193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E141" sqref="E141"/>
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C188" sqref="C188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2027,150 +2217,167 @@
     <col min="3" max="3" width="34.25" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="7" max="8" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F2" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-    </row>
-    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="F3" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="36" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="21" t="s">
         <v>139</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="36" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-    </row>
-    <row r="8" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34" t="s">
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+    </row>
+    <row r="8" spans="1:7" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-    </row>
-    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="34"/>
-      <c r="B9" s="35" t="s">
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+    </row>
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="27"/>
+      <c r="B9" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-    </row>
-    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="34"/>
-      <c r="B10" s="35" t="s">
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="27"/>
+      <c r="B10" s="21" t="s">
         <v>136</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="21" t="s">
         <v>137</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="34"/>
-      <c r="B11" s="35" t="s">
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="27"/>
+      <c r="B11" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="34" t="s">
+    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="36" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-    </row>
-    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="34" t="s">
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+    </row>
+    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="34"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="21" t="s">
         <v>139</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -2178,49 +2385,49 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="36" t="s">
+      <c r="B17" s="27"/>
+      <c r="C17" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
     </row>
     <row r="18" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
     </row>
     <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35" t="s">
+      <c r="A19" s="27"/>
+      <c r="B19" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
     </row>
     <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="34"/>
-      <c r="B20" s="35" t="s">
+      <c r="A20" s="27"/>
+      <c r="B20" s="21" t="s">
         <v>136</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="21" t="s">
         <v>137</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -2228,15 +2435,17 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="34"/>
-      <c r="B21" s="35" t="s">
+      <c r="A21" s="27"/>
+      <c r="B21" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
@@ -2257,25 +2466,25 @@
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="36" t="s">
+      <c r="B25" s="27"/>
+      <c r="C25" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
     </row>
     <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="B26" s="34"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="21" t="s">
         <v>139</v>
       </c>
       <c r="E26" s="3" t="s">
@@ -2283,49 +2492,49 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="36" t="s">
+      <c r="B27" s="27"/>
+      <c r="C27" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
     </row>
     <row r="28" spans="1:5" ht="136.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
     </row>
     <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="34"/>
-      <c r="B29" s="35" t="s">
+      <c r="A29" s="27"/>
+      <c r="B29" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
     </row>
     <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="34"/>
-      <c r="B30" s="35" t="s">
+      <c r="A30" s="27"/>
+      <c r="B30" s="21" t="s">
         <v>136</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="21" t="s">
         <v>137</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -2333,36 +2542,38 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="34"/>
-      <c r="B31" s="35" t="s">
+      <c r="A31" s="27"/>
+      <c r="B31" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="3"/>
-      <c r="D31" s="35" t="s">
+      <c r="D31" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="E31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="36" t="s">
+      <c r="B35" s="27"/>
+      <c r="C35" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
     </row>
     <row r="36" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="B36" s="34"/>
+      <c r="B36" s="27"/>
       <c r="C36" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="21" t="s">
         <v>139</v>
       </c>
       <c r="E36" s="3" t="s">
@@ -2370,49 +2581,49 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="36" t="s">
+      <c r="B37" s="27"/>
+      <c r="C37" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
     </row>
     <row r="38" spans="1:5" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="37" t="s">
+      <c r="C38" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
     </row>
     <row r="39" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="34"/>
-      <c r="B39" s="35" t="s">
+      <c r="A39" s="27"/>
+      <c r="B39" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
     </row>
     <row r="40" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="34"/>
-      <c r="B40" s="35" t="s">
+      <c r="A40" s="27"/>
+      <c r="B40" s="21" t="s">
         <v>136</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D40" s="35" t="s">
+      <c r="D40" s="21" t="s">
         <v>137</v>
       </c>
       <c r="E40" s="3" t="s">
@@ -2420,36 +2631,38 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="34"/>
-      <c r="B41" s="35" t="s">
+      <c r="A41" s="27"/>
+      <c r="B41" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C41" s="3"/>
-      <c r="D41" s="35" t="s">
+      <c r="D41" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="E41" s="3"/>
+      <c r="E41" s="3" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="34" t="s">
+      <c r="A45" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="B45" s="34"/>
-      <c r="C45" s="36" t="s">
+      <c r="B45" s="27"/>
+      <c r="C45" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
     </row>
     <row r="46" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="34" t="s">
+      <c r="A46" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="B46" s="34"/>
+      <c r="B46" s="27"/>
       <c r="C46" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D46" s="35" t="s">
+      <c r="D46" s="21" t="s">
         <v>139</v>
       </c>
       <c r="E46" s="3" t="s">
@@ -2457,49 +2670,49 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="34" t="s">
+      <c r="A47" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="B47" s="34"/>
-      <c r="C47" s="36" t="s">
+      <c r="B47" s="27"/>
+      <c r="C47" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
     </row>
     <row r="48" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="37" t="s">
+      <c r="C48" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
     </row>
     <row r="49" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="34"/>
-      <c r="B49" s="35" t="s">
+      <c r="A49" s="27"/>
+      <c r="B49" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
     </row>
     <row r="50" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="34"/>
-      <c r="B50" s="35" t="s">
+      <c r="A50" s="27"/>
+      <c r="B50" s="21" t="s">
         <v>136</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D50" s="35" t="s">
+      <c r="D50" s="21" t="s">
         <v>137</v>
       </c>
       <c r="E50" s="3" t="s">
@@ -2507,36 +2720,38 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="34"/>
-      <c r="B51" s="35" t="s">
+      <c r="A51" s="27"/>
+      <c r="B51" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C51" s="3"/>
-      <c r="D51" s="35" t="s">
+      <c r="D51" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="E51" s="3"/>
+      <c r="E51" s="3" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="55" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="34" t="s">
+      <c r="A55" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="B55" s="34"/>
-      <c r="C55" s="36" t="s">
+      <c r="B55" s="27"/>
+      <c r="C55" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
     </row>
     <row r="56" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="34" t="s">
+      <c r="A56" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="B56" s="34"/>
+      <c r="B56" s="27"/>
       <c r="C56" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="D56" s="35" t="s">
+      <c r="D56" s="21" t="s">
         <v>139</v>
       </c>
       <c r="E56" s="3" t="s">
@@ -2544,49 +2759,49 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="34" t="s">
+      <c r="A57" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="B57" s="34"/>
-      <c r="C57" s="36" t="s">
+      <c r="B57" s="27"/>
+      <c r="C57" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
     </row>
     <row r="58" spans="1:5" ht="186.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="34" t="s">
+      <c r="A58" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="B58" s="35" t="s">
+      <c r="B58" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="37" t="s">
+      <c r="C58" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
     </row>
     <row r="59" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="34"/>
-      <c r="B59" s="35" t="s">
+      <c r="A59" s="27"/>
+      <c r="B59" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C59" s="36" t="s">
+      <c r="C59" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
     </row>
     <row r="60" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="34"/>
-      <c r="B60" s="35" t="s">
+      <c r="A60" s="27"/>
+      <c r="B60" s="21" t="s">
         <v>136</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D60" s="35" t="s">
+      <c r="D60" s="21" t="s">
         <v>137</v>
       </c>
       <c r="E60" s="3" t="s">
@@ -2594,36 +2809,38 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="34"/>
-      <c r="B61" s="35" t="s">
+      <c r="A61" s="27"/>
+      <c r="B61" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C61" s="3"/>
-      <c r="D61" s="35" t="s">
+      <c r="D61" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="E61" s="3"/>
+      <c r="E61" s="3" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="65" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="34" t="s">
+      <c r="A65" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="B65" s="34"/>
-      <c r="C65" s="36" t="s">
+      <c r="B65" s="27"/>
+      <c r="C65" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="36"/>
-      <c r="E65" s="36"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
     </row>
     <row r="66" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="34" t="s">
+      <c r="A66" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="B66" s="34"/>
+      <c r="B66" s="27"/>
       <c r="C66" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D66" s="35" t="s">
+      <c r="D66" s="21" t="s">
         <v>139</v>
       </c>
       <c r="E66" s="3" t="s">
@@ -2631,49 +2848,49 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="34" t="s">
+      <c r="A67" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="B67" s="34"/>
-      <c r="C67" s="36" t="s">
+      <c r="B67" s="27"/>
+      <c r="C67" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="D67" s="36"/>
-      <c r="E67" s="36"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
     </row>
     <row r="68" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="34" t="s">
+      <c r="A68" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="B68" s="35" t="s">
+      <c r="B68" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C68" s="37" t="s">
+      <c r="C68" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="D68" s="36"/>
-      <c r="E68" s="36"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
     </row>
     <row r="69" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="34"/>
-      <c r="B69" s="35" t="s">
+      <c r="A69" s="27"/>
+      <c r="B69" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C69" s="36" t="s">
+      <c r="C69" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="D69" s="36"/>
-      <c r="E69" s="36"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
     </row>
     <row r="70" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="34"/>
-      <c r="B70" s="35" t="s">
+      <c r="A70" s="27"/>
+      <c r="B70" s="21" t="s">
         <v>136</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D70" s="35" t="s">
+      <c r="D70" s="21" t="s">
         <v>137</v>
       </c>
       <c r="E70" s="3" t="s">
@@ -2681,36 +2898,38 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="34"/>
-      <c r="B71" s="35" t="s">
+      <c r="A71" s="27"/>
+      <c r="B71" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C71" s="3"/>
-      <c r="D71" s="35" t="s">
+      <c r="D71" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="E71" s="3"/>
+      <c r="E71" s="3" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="75" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="34" t="s">
+      <c r="A75" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="B75" s="34"/>
-      <c r="C75" s="36" t="s">
+      <c r="B75" s="27"/>
+      <c r="C75" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D75" s="36"/>
-      <c r="E75" s="36"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
     </row>
     <row r="76" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="34" t="s">
+      <c r="A76" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="B76" s="34"/>
+      <c r="B76" s="27"/>
       <c r="C76" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="D76" s="35" t="s">
+      <c r="D76" s="21" t="s">
         <v>139</v>
       </c>
       <c r="E76" s="3" t="s">
@@ -2718,49 +2937,49 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="34" t="s">
+      <c r="A77" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="B77" s="34"/>
-      <c r="C77" s="36" t="s">
+      <c r="B77" s="27"/>
+      <c r="C77" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="D77" s="36"/>
-      <c r="E77" s="36"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
     </row>
     <row r="78" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="34" t="s">
+      <c r="A78" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="B78" s="35" t="s">
+      <c r="B78" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C78" s="37" t="s">
+      <c r="C78" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="D78" s="36"/>
-      <c r="E78" s="36"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
     </row>
     <row r="79" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="34"/>
-      <c r="B79" s="35" t="s">
+      <c r="A79" s="27"/>
+      <c r="B79" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C79" s="36" t="s">
+      <c r="C79" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="D79" s="36"/>
-      <c r="E79" s="36"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="28"/>
     </row>
     <row r="80" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="34"/>
-      <c r="B80" s="35" t="s">
+      <c r="A80" s="27"/>
+      <c r="B80" s="21" t="s">
         <v>136</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D80" s="35" t="s">
+      <c r="D80" s="21" t="s">
         <v>137</v>
       </c>
       <c r="E80" s="3" t="s">
@@ -2768,36 +2987,38 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="34"/>
-      <c r="B81" s="35" t="s">
+      <c r="A81" s="27"/>
+      <c r="B81" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C81" s="3"/>
-      <c r="D81" s="35" t="s">
+      <c r="D81" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="E81" s="3"/>
+      <c r="E81" s="3" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="85" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="34" t="s">
+      <c r="A85" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="B85" s="34"/>
-      <c r="C85" s="36" t="s">
+      <c r="B85" s="27"/>
+      <c r="C85" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D85" s="36"/>
-      <c r="E85" s="36"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
     </row>
     <row r="86" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="34" t="s">
+      <c r="A86" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="B86" s="34"/>
+      <c r="B86" s="27"/>
       <c r="C86" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="D86" s="35" t="s">
+      <c r="D86" s="21" t="s">
         <v>139</v>
       </c>
       <c r="E86" s="3" t="s">
@@ -2805,49 +3026,49 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="34" t="s">
+      <c r="A87" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="B87" s="34"/>
-      <c r="C87" s="36" t="s">
+      <c r="B87" s="27"/>
+      <c r="C87" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="D87" s="36"/>
-      <c r="E87" s="36"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="28"/>
     </row>
     <row r="88" spans="1:5" ht="213" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="34" t="s">
+      <c r="A88" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="B88" s="35" t="s">
+      <c r="B88" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C88" s="37" t="s">
+      <c r="C88" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="D88" s="36"/>
-      <c r="E88" s="36"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="28"/>
     </row>
     <row r="89" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="34"/>
-      <c r="B89" s="35" t="s">
+      <c r="A89" s="27"/>
+      <c r="B89" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C89" s="36" t="s">
+      <c r="C89" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="D89" s="36"/>
-      <c r="E89" s="36"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
     </row>
     <row r="90" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="34"/>
-      <c r="B90" s="35" t="s">
+      <c r="A90" s="27"/>
+      <c r="B90" s="21" t="s">
         <v>136</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D90" s="35" t="s">
+      <c r="D90" s="21" t="s">
         <v>137</v>
       </c>
       <c r="E90" s="3" t="s">
@@ -2855,36 +3076,38 @@
       </c>
     </row>
     <row r="91" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="34"/>
-      <c r="B91" s="35" t="s">
+      <c r="A91" s="27"/>
+      <c r="B91" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C91" s="3"/>
-      <c r="D91" s="35" t="s">
+      <c r="D91" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="E91" s="3"/>
+      <c r="E91" s="3" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="95" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="34" t="s">
+      <c r="A95" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="B95" s="34"/>
-      <c r="C95" s="36" t="s">
+      <c r="B95" s="27"/>
+      <c r="C95" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D95" s="36"/>
-      <c r="E95" s="36"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
     </row>
     <row r="96" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="34" t="s">
+      <c r="A96" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="B96" s="34"/>
+      <c r="B96" s="27"/>
       <c r="C96" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D96" s="35" t="s">
+      <c r="D96" s="21" t="s">
         <v>139</v>
       </c>
       <c r="E96" s="3" t="s">
@@ -2892,49 +3115,49 @@
       </c>
     </row>
     <row r="97" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="34" t="s">
+      <c r="A97" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="B97" s="34"/>
-      <c r="C97" s="36" t="s">
+      <c r="B97" s="27"/>
+      <c r="C97" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="D97" s="36"/>
-      <c r="E97" s="36"/>
+      <c r="D97" s="28"/>
+      <c r="E97" s="28"/>
     </row>
     <row r="98" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="34" t="s">
+      <c r="A98" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="B98" s="35" t="s">
+      <c r="B98" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C98" s="37" t="s">
+      <c r="C98" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="D98" s="36"/>
-      <c r="E98" s="36"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
     </row>
     <row r="99" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="34"/>
-      <c r="B99" s="35" t="s">
+      <c r="A99" s="27"/>
+      <c r="B99" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C99" s="36" t="s">
+      <c r="C99" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="D99" s="36"/>
-      <c r="E99" s="36"/>
+      <c r="D99" s="28"/>
+      <c r="E99" s="28"/>
     </row>
     <row r="100" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="34"/>
-      <c r="B100" s="35" t="s">
+      <c r="A100" s="27"/>
+      <c r="B100" s="21" t="s">
         <v>136</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D100" s="35" t="s">
+      <c r="D100" s="21" t="s">
         <v>137</v>
       </c>
       <c r="E100" s="3" t="s">
@@ -2942,36 +3165,38 @@
       </c>
     </row>
     <row r="101" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="34"/>
-      <c r="B101" s="35" t="s">
+      <c r="A101" s="27"/>
+      <c r="B101" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C101" s="3"/>
-      <c r="D101" s="35" t="s">
+      <c r="D101" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="E101" s="3"/>
+      <c r="E101" s="3" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="105" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="34" t="s">
+      <c r="A105" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="B105" s="34"/>
-      <c r="C105" s="36" t="s">
+      <c r="B105" s="27"/>
+      <c r="C105" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D105" s="36"/>
-      <c r="E105" s="36"/>
+      <c r="D105" s="28"/>
+      <c r="E105" s="28"/>
     </row>
     <row r="106" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="34" t="s">
+      <c r="A106" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="B106" s="34"/>
+      <c r="B106" s="27"/>
       <c r="C106" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D106" s="35" t="s">
+      <c r="D106" s="21" t="s">
         <v>139</v>
       </c>
       <c r="E106" s="3" t="s">
@@ -2979,49 +3204,49 @@
       </c>
     </row>
     <row r="107" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="34" t="s">
+      <c r="A107" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="B107" s="34"/>
-      <c r="C107" s="36" t="s">
+      <c r="B107" s="27"/>
+      <c r="C107" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="D107" s="36"/>
-      <c r="E107" s="36"/>
+      <c r="D107" s="28"/>
+      <c r="E107" s="28"/>
     </row>
     <row r="108" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="34" t="s">
+      <c r="A108" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="B108" s="35" t="s">
+      <c r="B108" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C108" s="37" t="s">
+      <c r="C108" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="D108" s="36"/>
-      <c r="E108" s="36"/>
+      <c r="D108" s="28"/>
+      <c r="E108" s="28"/>
     </row>
     <row r="109" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="34"/>
-      <c r="B109" s="35" t="s">
+      <c r="A109" s="27"/>
+      <c r="B109" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C109" s="36" t="s">
+      <c r="C109" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="D109" s="36"/>
-      <c r="E109" s="36"/>
+      <c r="D109" s="28"/>
+      <c r="E109" s="28"/>
     </row>
     <row r="110" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="34"/>
-      <c r="B110" s="35" t="s">
+      <c r="A110" s="27"/>
+      <c r="B110" s="21" t="s">
         <v>136</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D110" s="35" t="s">
+      <c r="D110" s="21" t="s">
         <v>137</v>
       </c>
       <c r="E110" s="3" t="s">
@@ -3029,36 +3254,38 @@
       </c>
     </row>
     <row r="111" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="34"/>
-      <c r="B111" s="35" t="s">
+      <c r="A111" s="27"/>
+      <c r="B111" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C111" s="3"/>
-      <c r="D111" s="35" t="s">
+      <c r="D111" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="E111" s="3"/>
+      <c r="E111" s="3" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="115" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="34" t="s">
+      <c r="A115" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="B115" s="34"/>
-      <c r="C115" s="36" t="s">
+      <c r="B115" s="27"/>
+      <c r="C115" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D115" s="36"/>
-      <c r="E115" s="36"/>
+      <c r="D115" s="28"/>
+      <c r="E115" s="28"/>
     </row>
     <row r="116" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="34" t="s">
+      <c r="A116" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="B116" s="34"/>
+      <c r="B116" s="27"/>
       <c r="C116" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="D116" s="35" t="s">
+      <c r="D116" s="21" t="s">
         <v>139</v>
       </c>
       <c r="E116" s="3" t="s">
@@ -3066,49 +3293,49 @@
       </c>
     </row>
     <row r="117" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="34" t="s">
+      <c r="A117" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="B117" s="34"/>
-      <c r="C117" s="36" t="s">
+      <c r="B117" s="27"/>
+      <c r="C117" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="D117" s="36"/>
-      <c r="E117" s="36"/>
+      <c r="D117" s="28"/>
+      <c r="E117" s="28"/>
     </row>
     <row r="118" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="34" t="s">
+      <c r="A118" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="B118" s="35" t="s">
+      <c r="B118" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C118" s="37" t="s">
+      <c r="C118" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="D118" s="36"/>
-      <c r="E118" s="36"/>
+      <c r="D118" s="28"/>
+      <c r="E118" s="28"/>
     </row>
     <row r="119" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="34"/>
-      <c r="B119" s="35" t="s">
+      <c r="A119" s="27"/>
+      <c r="B119" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C119" s="36" t="s">
+      <c r="C119" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="D119" s="36"/>
-      <c r="E119" s="36"/>
+      <c r="D119" s="28"/>
+      <c r="E119" s="28"/>
     </row>
     <row r="120" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="34"/>
-      <c r="B120" s="35" t="s">
+      <c r="A120" s="27"/>
+      <c r="B120" s="21" t="s">
         <v>136</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D120" s="35" t="s">
+      <c r="D120" s="21" t="s">
         <v>137</v>
       </c>
       <c r="E120" s="3" t="s">
@@ -3116,36 +3343,38 @@
       </c>
     </row>
     <row r="121" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="34"/>
-      <c r="B121" s="35" t="s">
+      <c r="A121" s="27"/>
+      <c r="B121" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C121" s="3"/>
-      <c r="D121" s="35" t="s">
+      <c r="D121" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="E121" s="3"/>
+      <c r="E121" s="3" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="125" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="34" t="s">
+      <c r="A125" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="B125" s="34"/>
-      <c r="C125" s="36" t="s">
+      <c r="B125" s="27"/>
+      <c r="C125" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="D125" s="36"/>
-      <c r="E125" s="36"/>
+      <c r="D125" s="28"/>
+      <c r="E125" s="28"/>
     </row>
     <row r="126" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="34" t="s">
+      <c r="A126" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="B126" s="34"/>
+      <c r="B126" s="27"/>
       <c r="C126" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="D126" s="35" t="s">
+      <c r="D126" s="21" t="s">
         <v>139</v>
       </c>
       <c r="E126" s="3" t="s">
@@ -3153,49 +3382,49 @@
       </c>
     </row>
     <row r="127" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="34" t="s">
+      <c r="A127" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="B127" s="34"/>
-      <c r="C127" s="36" t="s">
+      <c r="B127" s="27"/>
+      <c r="C127" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="D127" s="36"/>
-      <c r="E127" s="36"/>
+      <c r="D127" s="28"/>
+      <c r="E127" s="28"/>
     </row>
     <row r="128" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="34" t="s">
+      <c r="A128" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="B128" s="35" t="s">
+      <c r="B128" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C128" s="37" t="s">
+      <c r="C128" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="D128" s="36"/>
-      <c r="E128" s="36"/>
+      <c r="D128" s="28"/>
+      <c r="E128" s="28"/>
     </row>
     <row r="129" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="34"/>
-      <c r="B129" s="35" t="s">
+      <c r="A129" s="27"/>
+      <c r="B129" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C129" s="36" t="s">
+      <c r="C129" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="D129" s="36"/>
-      <c r="E129" s="36"/>
+      <c r="D129" s="28"/>
+      <c r="E129" s="28"/>
     </row>
     <row r="130" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="34"/>
-      <c r="B130" s="35" t="s">
+      <c r="A130" s="27"/>
+      <c r="B130" s="21" t="s">
         <v>136</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D130" s="35" t="s">
+      <c r="D130" s="21" t="s">
         <v>137</v>
       </c>
       <c r="E130" s="3" t="s">
@@ -3203,36 +3432,38 @@
       </c>
     </row>
     <row r="131" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="34"/>
-      <c r="B131" s="35" t="s">
+      <c r="A131" s="27"/>
+      <c r="B131" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C131" s="3"/>
-      <c r="D131" s="35" t="s">
+      <c r="D131" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="E131" s="3"/>
+      <c r="E131" s="3" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="135" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="34" t="s">
+      <c r="A135" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="B135" s="34"/>
-      <c r="C135" s="36" t="s">
+      <c r="B135" s="27"/>
+      <c r="C135" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="D135" s="36"/>
-      <c r="E135" s="36"/>
+      <c r="D135" s="28"/>
+      <c r="E135" s="28"/>
     </row>
     <row r="136" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="34" t="s">
+      <c r="A136" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="B136" s="34"/>
+      <c r="B136" s="27"/>
       <c r="C136" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D136" s="35" t="s">
+      <c r="D136" s="21" t="s">
         <v>139</v>
       </c>
       <c r="E136" s="3" t="s">
@@ -3240,49 +3471,49 @@
       </c>
     </row>
     <row r="137" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="34" t="s">
+      <c r="A137" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="B137" s="34"/>
-      <c r="C137" s="36" t="s">
+      <c r="B137" s="27"/>
+      <c r="C137" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="D137" s="36"/>
-      <c r="E137" s="36"/>
+      <c r="D137" s="28"/>
+      <c r="E137" s="28"/>
     </row>
     <row r="138" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="34" t="s">
+      <c r="A138" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="B138" s="35" t="s">
+      <c r="B138" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C138" s="37" t="s">
+      <c r="C138" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="D138" s="36"/>
-      <c r="E138" s="36"/>
+      <c r="D138" s="28"/>
+      <c r="E138" s="28"/>
     </row>
     <row r="139" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="34"/>
-      <c r="B139" s="35" t="s">
+      <c r="A139" s="27"/>
+      <c r="B139" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C139" s="36" t="s">
+      <c r="C139" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="D139" s="36"/>
-      <c r="E139" s="36"/>
+      <c r="D139" s="28"/>
+      <c r="E139" s="28"/>
     </row>
     <row r="140" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="34"/>
-      <c r="B140" s="35" t="s">
+      <c r="A140" s="27"/>
+      <c r="B140" s="21" t="s">
         <v>136</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D140" s="35" t="s">
+      <c r="D140" s="21" t="s">
         <v>137</v>
       </c>
       <c r="E140" s="3" t="s">
@@ -3290,86 +3521,88 @@
       </c>
     </row>
     <row r="141" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="34"/>
-      <c r="B141" s="35" t="s">
+      <c r="A141" s="27"/>
+      <c r="B141" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C141" s="3"/>
-      <c r="D141" s="35" t="s">
+      <c r="D141" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="E141" s="3"/>
+      <c r="E141" s="3" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="145" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="34" t="s">
+      <c r="A145" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="B145" s="34"/>
-      <c r="C145" s="36" t="s">
+      <c r="B145" s="27"/>
+      <c r="C145" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D145" s="36"/>
-      <c r="E145" s="36"/>
+      <c r="D145" s="28"/>
+      <c r="E145" s="28"/>
     </row>
     <row r="146" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="34" t="s">
+      <c r="A146" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="B146" s="34"/>
+      <c r="B146" s="27"/>
       <c r="C146" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D146" s="35" t="s">
+      <c r="D146" s="21" t="s">
         <v>139</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>72</v>
+        <v>199</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="34" t="s">
+      <c r="A147" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="B147" s="34"/>
-      <c r="C147" s="36" t="s">
+      <c r="B147" s="27"/>
+      <c r="C147" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="D147" s="36"/>
-      <c r="E147" s="36"/>
+      <c r="D147" s="28"/>
+      <c r="E147" s="28"/>
     </row>
     <row r="148" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="34" t="s">
+      <c r="A148" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="B148" s="35" t="s">
+      <c r="B148" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C148" s="37" t="s">
+      <c r="C148" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="D148" s="36"/>
-      <c r="E148" s="36"/>
+      <c r="D148" s="28"/>
+      <c r="E148" s="28"/>
     </row>
     <row r="149" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="34"/>
-      <c r="B149" s="35" t="s">
+      <c r="A149" s="27"/>
+      <c r="B149" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C149" s="36" t="s">
+      <c r="C149" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="D149" s="36"/>
-      <c r="E149" s="36"/>
+      <c r="D149" s="28"/>
+      <c r="E149" s="28"/>
     </row>
     <row r="150" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="34"/>
-      <c r="B150" s="35" t="s">
+      <c r="A150" s="27"/>
+      <c r="B150" s="21" t="s">
         <v>136</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D150" s="35" t="s">
+      <c r="D150" s="21" t="s">
         <v>137</v>
       </c>
       <c r="E150" s="3" t="s">
@@ -3377,36 +3610,38 @@
       </c>
     </row>
     <row r="151" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="34"/>
-      <c r="B151" s="35" t="s">
+      <c r="A151" s="27"/>
+      <c r="B151" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C151" s="3"/>
-      <c r="D151" s="35" t="s">
+      <c r="D151" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="E151" s="3"/>
+      <c r="E151" s="3" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="155" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="34" t="s">
+      <c r="A155" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="B155" s="34"/>
-      <c r="C155" s="36" t="s">
+      <c r="B155" s="27"/>
+      <c r="C155" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D155" s="36"/>
-      <c r="E155" s="36"/>
+      <c r="D155" s="28"/>
+      <c r="E155" s="28"/>
     </row>
     <row r="156" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="34" t="s">
+      <c r="A156" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="B156" s="34"/>
+      <c r="B156" s="27"/>
       <c r="C156" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="D156" s="35" t="s">
+      <c r="D156" s="21" t="s">
         <v>139</v>
       </c>
       <c r="E156" s="3" t="s">
@@ -3414,68 +3649,488 @@
       </c>
     </row>
     <row r="157" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="34" t="s">
+      <c r="A157" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="B157" s="34"/>
-      <c r="C157" s="36" t="s">
+      <c r="B157" s="27"/>
+      <c r="C157" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="D157" s="36"/>
-      <c r="E157" s="36"/>
+      <c r="D157" s="28"/>
+      <c r="E157" s="28"/>
     </row>
     <row r="158" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="34" t="s">
+      <c r="A158" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="B158" s="35" t="s">
+      <c r="B158" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C158" s="37" t="s">
+      <c r="C158" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="D158" s="36"/>
-      <c r="E158" s="36"/>
+      <c r="D158" s="28"/>
+      <c r="E158" s="28"/>
     </row>
     <row r="159" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="34"/>
-      <c r="B159" s="35" t="s">
+      <c r="A159" s="27"/>
+      <c r="B159" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C159" s="36" t="s">
+      <c r="C159" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="D159" s="36"/>
-      <c r="E159" s="36"/>
+      <c r="D159" s="28"/>
+      <c r="E159" s="28"/>
     </row>
     <row r="160" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="34"/>
-      <c r="B160" s="35" t="s">
+      <c r="A160" s="27"/>
+      <c r="B160" s="21" t="s">
         <v>136</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D160" s="35" t="s">
+      <c r="D160" s="21" t="s">
         <v>137</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="34"/>
-      <c r="B161" s="35" t="s">
+    <row r="161" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="27"/>
+      <c r="B161" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C161" s="3"/>
-      <c r="D161" s="35" t="s">
+      <c r="D161" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="E161" s="3"/>
+      <c r="E161" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="B165" s="27"/>
+      <c r="C165" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D165" s="28"/>
+      <c r="E165" s="28"/>
+    </row>
+    <row r="166" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B166" s="27"/>
+      <c r="C166" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D166" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B167" s="27"/>
+      <c r="C167" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="D167" s="28"/>
+      <c r="E167" s="28"/>
+    </row>
+    <row r="168" spans="1:8" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B168" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C168" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="D168" s="28"/>
+      <c r="E168" s="28"/>
+    </row>
+    <row r="169" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="27"/>
+      <c r="B169" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C169" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="D169" s="28"/>
+      <c r="E169" s="28"/>
+    </row>
+    <row r="170" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="27"/>
+      <c r="B170" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D170" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="27"/>
+      <c r="B171" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C171" s="3"/>
+      <c r="D171" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A174" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B174" s="24"/>
+      <c r="C174" s="24"/>
+      <c r="D174" s="24"/>
+      <c r="E174" s="24"/>
+      <c r="F174" s="24"/>
+      <c r="G174" s="24"/>
+      <c r="H174" s="24"/>
+    </row>
+    <row r="177" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="B177" s="27"/>
+      <c r="C177" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D177" s="28"/>
+      <c r="E177" s="28"/>
+    </row>
+    <row r="178" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B178" s="27"/>
+      <c r="C178" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="D178" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B179" s="27"/>
+      <c r="C179" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D179" s="28"/>
+      <c r="E179" s="28"/>
+    </row>
+    <row r="180" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B180" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C180" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="D180" s="28"/>
+      <c r="E180" s="28"/>
+    </row>
+    <row r="181" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="27"/>
+      <c r="B181" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C181" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="D181" s="28"/>
+      <c r="E181" s="28"/>
+    </row>
+    <row r="182" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="27"/>
+      <c r="B182" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D182" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="27"/>
+      <c r="B183" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C183" s="3"/>
+      <c r="D183" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="B187" s="27"/>
+      <c r="C187" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D187" s="28"/>
+      <c r="E187" s="28"/>
+    </row>
+    <row r="188" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B188" s="27"/>
+      <c r="C188" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="D188" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B189" s="27"/>
+      <c r="C189" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="D189" s="28"/>
+      <c r="E189" s="28"/>
+    </row>
+    <row r="190" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B190" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C190" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="D190" s="28"/>
+      <c r="E190" s="28"/>
+    </row>
+    <row r="191" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="27"/>
+      <c r="B191" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C191" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="D191" s="28"/>
+      <c r="E191" s="28"/>
+    </row>
+    <row r="192" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="27"/>
+      <c r="B192" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D192" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="27"/>
+      <c r="B193" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C193" s="3"/>
+      <c r="D193" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>208</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="130">
+  <mergeCells count="155">
+    <mergeCell ref="A190:A193"/>
+    <mergeCell ref="C190:E190"/>
+    <mergeCell ref="C191:E191"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="C179:E179"/>
+    <mergeCell ref="A180:A183"/>
+    <mergeCell ref="C180:E180"/>
+    <mergeCell ref="C181:E181"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="C187:E187"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="C189:E189"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="C167:E167"/>
+    <mergeCell ref="A168:A171"/>
+    <mergeCell ref="C168:E168"/>
+    <mergeCell ref="C169:E169"/>
+    <mergeCell ref="A174:H174"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="C177:E177"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="C165:E165"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:E97"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:E117"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="C118:E118"/>
+    <mergeCell ref="C119:E119"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:E107"/>
+    <mergeCell ref="A108:A111"/>
+    <mergeCell ref="C108:E108"/>
+    <mergeCell ref="C109:E109"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:E135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:E137"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="C138:E138"/>
+    <mergeCell ref="C139:E139"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:E125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:E127"/>
+    <mergeCell ref="A128:A131"/>
+    <mergeCell ref="C128:E128"/>
+    <mergeCell ref="C129:E129"/>
     <mergeCell ref="A155:B155"/>
     <mergeCell ref="C155:E155"/>
     <mergeCell ref="A156:B156"/>
@@ -3492,120 +4147,6 @@
     <mergeCell ref="A148:A151"/>
     <mergeCell ref="C148:E148"/>
     <mergeCell ref="C149:E149"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="C135:E135"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="C137:E137"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="C138:E138"/>
-    <mergeCell ref="C139:E139"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="C125:E125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="C127:E127"/>
-    <mergeCell ref="A128:A131"/>
-    <mergeCell ref="C128:E128"/>
-    <mergeCell ref="C129:E129"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="C115:E115"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="C117:E117"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="C118:E118"/>
-    <mergeCell ref="C119:E119"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="C105:E105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="C107:E107"/>
-    <mergeCell ref="A108:A111"/>
-    <mergeCell ref="C108:E108"/>
-    <mergeCell ref="C109:E109"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:E97"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="C98:E98"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="C88:E88"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C7:E7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3630,83 +4171,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="33"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31" t="s">
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31" t="s">
+      <c r="G5" s="32"/>
+      <c r="H5" s="32" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="31"/>
+      <c r="H6" s="32"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -3714,9 +4255,9 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="37"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -3724,9 +4265,9 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="37"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -3734,9 +4275,9 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="27"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="37"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -3744,9 +4285,9 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -3754,9 +4295,9 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -3764,9 +4305,9 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -3774,9 +4315,9 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -3784,9 +4325,9 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="37"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -3794,9 +4335,9 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="27"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="37"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -3804,9 +4345,9 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="27"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -3814,9 +4355,9 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="27"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -3824,9 +4365,9 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="27"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="37"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -3834,9 +4375,9 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -3844,9 +4385,9 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -3854,9 +4395,9 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -3864,9 +4405,9 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="27"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -3874,9 +4415,9 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -3884,9 +4425,9 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="27"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="37"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -3894,9 +4435,9 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="27"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="37"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -3904,9 +4445,9 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="27"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="37"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -3914,9 +4455,9 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="27"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="37"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -3924,9 +4465,9 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="27"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="37"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -3934,9 +4475,9 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="27"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="37"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -3944,9 +4485,9 @@
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="27"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="37"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -3954,9 +4495,9 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="27"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="37"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -3964,9 +4505,9 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="27"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="37"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -3974,9 +4515,9 @@
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="27"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="37"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -3984,9 +4525,9 @@
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="27"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="37"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -3994,9 +4535,9 @@
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="27"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="37"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -4004,9 +4545,9 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="27"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="37"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -4014,9 +4555,9 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="27"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="37"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -4024,9 +4565,9 @@
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="27"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="37"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -4034,9 +4575,9 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="27"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="37"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -4183,16 +4724,24 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="C5:E6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C36:E36"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C10:E10"/>
@@ -4209,24 +4758,16 @@
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="C5:E6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4239,7 +4780,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4251,16 +4792,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="A1" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">

--- a/Requirement_Analysis/요구사항 정의서_명세서.xlsx
+++ b/Requirement_Analysis/요구사항 정의서_명세서.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hanino\Desktop\Documents\Vocational_training\TeamProject\git\Requirement_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6944585B-1250-47E5-BFD6-0460E9F7AAB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99D8A95-D985-460F-8339-513AE8FDBA77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="1950" windowWidth="20400" windowHeight="16080" activeTab="1" xr2:uid="{75874DD5-9C79-4FFA-A134-FDEB5CD24794}"/>
+    <workbookView xWindow="17280" yWindow="1950" windowWidth="20400" windowHeight="16080" activeTab="3" xr2:uid="{75874DD5-9C79-4FFA-A134-FDEB5CD24794}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 정의서" sheetId="3" r:id="rId1"/>
     <sheet name="요구사항 명세서" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="요구사항 분석서(미완)" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1255,6 +1255,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1274,24 +1280,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1306,10 +1300,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1645,28 +1645,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
@@ -1744,7 +1744,7 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -1766,7 +1766,7 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="9" t="s">
         <v>82</v>
       </c>
@@ -1786,7 +1786,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="24" t="s">
         <v>84</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -1810,7 +1810,7 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="9" t="s">
         <v>69</v>
       </c>
@@ -1832,7 +1832,7 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="9" t="s">
         <v>70</v>
       </c>
@@ -1852,7 +1852,7 @@
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="24" t="s">
         <v>87</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -1874,7 +1874,7 @@
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="9" t="s">
         <v>88</v>
       </c>
@@ -1894,8 +1894,8 @@
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
-      <c r="B15" s="22" t="s">
+      <c r="A15" s="28"/>
+      <c r="B15" s="24" t="s">
         <v>67</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -1914,8 +1914,8 @@
       <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="11" t="s">
         <v>95</v>
       </c>
@@ -1932,7 +1932,7 @@
       <c r="H16" s="12"/>
     </row>
     <row r="17" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="9" t="s">
         <v>46</v>
       </c>
@@ -1954,7 +1954,7 @@
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="9" t="s">
         <v>127</v>
       </c>
@@ -1974,7 +1974,7 @@
       <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="9" t="s">
         <v>124</v>
       </c>
@@ -1992,7 +1992,7 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="24" t="s">
         <v>71</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -2014,7 +2014,7 @@
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="9" t="s">
         <v>100</v>
       </c>
@@ -2034,7 +2034,7 @@
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="24" t="s">
         <v>72</v>
       </c>
       <c r="B22" s="20" t="s">
@@ -2056,7 +2056,7 @@
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="9" t="s">
         <v>200</v>
       </c>
@@ -2108,16 +2108,16 @@
       <c r="H25" s="3"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
     </row>
     <row r="28" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
@@ -2146,7 +2146,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="22" t="s">
         <v>187</v>
       </c>
       <c r="B29" s="17" t="s">
@@ -2166,7 +2166,7 @@
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="40"/>
+      <c r="A30" s="23"/>
       <c r="B30" s="18" t="s">
         <v>189</v>
       </c>
@@ -2185,16 +2185,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A19"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2206,7 +2206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF9E22A-6541-4317-9471-B936723F705D}">
   <dimension ref="A1:H193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A175" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C188" sqref="C188"/>
     </sheetView>
   </sheetViews>
@@ -2221,13 +2221,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F2" s="21" t="s">
@@ -2238,12 +2238,12 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
       <c r="F3" s="21" t="s">
         <v>196</v>
       </c>
@@ -2252,21 +2252,21 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="27"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="14" t="s">
         <v>107</v>
       </c>
@@ -2278,42 +2278,42 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
     </row>
     <row r="8" spans="1:7" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="29" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
     </row>
     <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
     </row>
     <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="21" t="s">
         <v>136</v>
       </c>
@@ -2328,7 +2328,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="21" t="s">
         <v>16</v>
       </c>
@@ -2359,21 +2359,21 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28" t="s">
+      <c r="B15" s="29"/>
+      <c r="C15" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
     </row>
     <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="27"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="14" t="s">
         <v>108</v>
       </c>
@@ -2385,42 +2385,42 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="28" t="s">
+      <c r="B17" s="29"/>
+      <c r="C17" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
     </row>
     <row r="18" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="29" t="s">
         <v>134</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
     </row>
     <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
     </row>
     <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="21" t="s">
         <v>136</v>
       </c>
@@ -2435,7 +2435,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="21" t="s">
         <v>16</v>
       </c>
@@ -2466,21 +2466,21 @@
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="28" t="s">
+      <c r="B25" s="29"/>
+      <c r="C25" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
     </row>
     <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="B26" s="27"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="14" t="s">
         <v>109</v>
       </c>
@@ -2492,42 +2492,42 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="28" t="s">
+      <c r="B27" s="29"/>
+      <c r="C27" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
     </row>
     <row r="28" spans="1:5" ht="136.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="29" t="s">
         <v>134</v>
       </c>
       <c r="B28" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
     </row>
     <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="27"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
     </row>
     <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="27"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="21" t="s">
         <v>136</v>
       </c>
@@ -2542,7 +2542,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="27"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="21" t="s">
         <v>16</v>
       </c>
@@ -2555,21 +2555,21 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="28" t="s">
+      <c r="B35" s="29"/>
+      <c r="C35" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
     </row>
     <row r="36" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="B36" s="27"/>
+      <c r="B36" s="29"/>
       <c r="C36" s="14" t="s">
         <v>110</v>
       </c>
@@ -2581,42 +2581,42 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="27" t="s">
+      <c r="A37" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="28" t="s">
+      <c r="B37" s="29"/>
+      <c r="C37" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
     </row>
     <row r="38" spans="1:5" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="29" t="s">
         <v>134</v>
       </c>
       <c r="B38" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
     </row>
     <row r="39" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="27"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
     </row>
     <row r="40" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="27"/>
+      <c r="A40" s="29"/>
       <c r="B40" s="21" t="s">
         <v>136</v>
       </c>
@@ -2631,7 +2631,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="27"/>
+      <c r="A41" s="29"/>
       <c r="B41" s="21" t="s">
         <v>16</v>
       </c>
@@ -2644,21 +2644,21 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="27" t="s">
+      <c r="A45" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="B45" s="27"/>
-      <c r="C45" s="28" t="s">
+      <c r="B45" s="29"/>
+      <c r="C45" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
     </row>
     <row r="46" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="27" t="s">
+      <c r="A46" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="B46" s="27"/>
+      <c r="B46" s="29"/>
       <c r="C46" s="14" t="s">
         <v>111</v>
       </c>
@@ -2670,42 +2670,42 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="27" t="s">
+      <c r="A47" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B47" s="27"/>
-      <c r="C47" s="28" t="s">
+      <c r="B47" s="29"/>
+      <c r="C47" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
     </row>
     <row r="48" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="27" t="s">
+      <c r="A48" s="29" t="s">
         <v>134</v>
       </c>
       <c r="B48" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="29" t="s">
+      <c r="C48" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
     </row>
     <row r="49" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="27"/>
+      <c r="A49" s="29"/>
       <c r="B49" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C49" s="28" t="s">
+      <c r="C49" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
     </row>
     <row r="50" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="27"/>
+      <c r="A50" s="29"/>
       <c r="B50" s="21" t="s">
         <v>136</v>
       </c>
@@ -2720,7 +2720,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="27"/>
+      <c r="A51" s="29"/>
       <c r="B51" s="21" t="s">
         <v>16</v>
       </c>
@@ -2733,21 +2733,21 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="B55" s="27"/>
-      <c r="C55" s="28" t="s">
+      <c r="B55" s="29"/>
+      <c r="C55" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
     </row>
     <row r="56" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="B56" s="27"/>
+      <c r="B56" s="29"/>
       <c r="C56" s="14" t="s">
         <v>147</v>
       </c>
@@ -2759,42 +2759,42 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="27" t="s">
+      <c r="A57" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B57" s="27"/>
-      <c r="C57" s="28" t="s">
+      <c r="B57" s="29"/>
+      <c r="C57" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
     </row>
     <row r="58" spans="1:5" ht="186.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="27" t="s">
+      <c r="A58" s="29" t="s">
         <v>134</v>
       </c>
       <c r="B58" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="29" t="s">
+      <c r="C58" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
     </row>
     <row r="59" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="27"/>
+      <c r="A59" s="29"/>
       <c r="B59" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C59" s="28" t="s">
+      <c r="C59" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
     </row>
     <row r="60" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="27"/>
+      <c r="A60" s="29"/>
       <c r="B60" s="21" t="s">
         <v>136</v>
       </c>
@@ -2809,7 +2809,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="27"/>
+      <c r="A61" s="29"/>
       <c r="B61" s="21" t="s">
         <v>16</v>
       </c>
@@ -2822,21 +2822,21 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="27" t="s">
+      <c r="A65" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="B65" s="27"/>
-      <c r="C65" s="28" t="s">
+      <c r="B65" s="29"/>
+      <c r="C65" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
     </row>
     <row r="66" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="27" t="s">
+      <c r="A66" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="B66" s="27"/>
+      <c r="B66" s="29"/>
       <c r="C66" s="14" t="s">
         <v>114</v>
       </c>
@@ -2848,42 +2848,42 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="27" t="s">
+      <c r="A67" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B67" s="27"/>
-      <c r="C67" s="28" t="s">
+      <c r="B67" s="29"/>
+      <c r="C67" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
     </row>
     <row r="68" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="27" t="s">
+      <c r="A68" s="29" t="s">
         <v>134</v>
       </c>
       <c r="B68" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C68" s="29" t="s">
+      <c r="C68" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
     </row>
     <row r="69" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="27"/>
+      <c r="A69" s="29"/>
       <c r="B69" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C69" s="28" t="s">
+      <c r="C69" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
     </row>
     <row r="70" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="27"/>
+      <c r="A70" s="29"/>
       <c r="B70" s="21" t="s">
         <v>136</v>
       </c>
@@ -2898,7 +2898,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="27"/>
+      <c r="A71" s="29"/>
       <c r="B71" s="21" t="s">
         <v>16</v>
       </c>
@@ -2911,21 +2911,21 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="27" t="s">
+      <c r="A75" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="B75" s="27"/>
-      <c r="C75" s="28" t="s">
+      <c r="B75" s="29"/>
+      <c r="C75" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="31"/>
     </row>
     <row r="76" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="27" t="s">
+      <c r="A76" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="B76" s="27"/>
+      <c r="B76" s="29"/>
       <c r="C76" s="14" t="s">
         <v>115</v>
       </c>
@@ -2937,42 +2937,42 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="27" t="s">
+      <c r="A77" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B77" s="27"/>
-      <c r="C77" s="28" t="s">
+      <c r="B77" s="29"/>
+      <c r="C77" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
     </row>
     <row r="78" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="27" t="s">
+      <c r="A78" s="29" t="s">
         <v>134</v>
       </c>
       <c r="B78" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C78" s="29" t="s">
+      <c r="C78" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="D78" s="28"/>
-      <c r="E78" s="28"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
     </row>
     <row r="79" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="27"/>
+      <c r="A79" s="29"/>
       <c r="B79" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C79" s="28" t="s">
+      <c r="C79" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
     </row>
     <row r="80" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="27"/>
+      <c r="A80" s="29"/>
       <c r="B80" s="21" t="s">
         <v>136</v>
       </c>
@@ -2987,7 +2987,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="27"/>
+      <c r="A81" s="29"/>
       <c r="B81" s="21" t="s">
         <v>16</v>
       </c>
@@ -3000,21 +3000,21 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="27" t="s">
+      <c r="A85" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="B85" s="27"/>
-      <c r="C85" s="28" t="s">
+      <c r="B85" s="29"/>
+      <c r="C85" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="D85" s="28"/>
-      <c r="E85" s="28"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="31"/>
     </row>
     <row r="86" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="27" t="s">
+      <c r="A86" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="B86" s="27"/>
+      <c r="B86" s="29"/>
       <c r="C86" s="14" t="s">
         <v>153</v>
       </c>
@@ -3026,42 +3026,42 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="27" t="s">
+      <c r="A87" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B87" s="27"/>
-      <c r="C87" s="28" t="s">
+      <c r="B87" s="29"/>
+      <c r="C87" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="D87" s="28"/>
-      <c r="E87" s="28"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
     </row>
     <row r="88" spans="1:5" ht="213" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="27" t="s">
+      <c r="A88" s="29" t="s">
         <v>134</v>
       </c>
       <c r="B88" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C88" s="29" t="s">
+      <c r="C88" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="D88" s="28"/>
-      <c r="E88" s="28"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
     </row>
     <row r="89" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="27"/>
+      <c r="A89" s="29"/>
       <c r="B89" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C89" s="28" t="s">
+      <c r="C89" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="31"/>
     </row>
     <row r="90" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="27"/>
+      <c r="A90" s="29"/>
       <c r="B90" s="21" t="s">
         <v>136</v>
       </c>
@@ -3076,7 +3076,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="27"/>
+      <c r="A91" s="29"/>
       <c r="B91" s="21" t="s">
         <v>16</v>
       </c>
@@ -3089,21 +3089,21 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="27" t="s">
+      <c r="A95" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="B95" s="27"/>
-      <c r="C95" s="28" t="s">
+      <c r="B95" s="29"/>
+      <c r="C95" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
+      <c r="D95" s="31"/>
+      <c r="E95" s="31"/>
     </row>
     <row r="96" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="27" t="s">
+      <c r="A96" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="B96" s="27"/>
+      <c r="B96" s="29"/>
       <c r="C96" s="14" t="s">
         <v>118</v>
       </c>
@@ -3115,42 +3115,42 @@
       </c>
     </row>
     <row r="97" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="27" t="s">
+      <c r="A97" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B97" s="27"/>
-      <c r="C97" s="28" t="s">
+      <c r="B97" s="29"/>
+      <c r="C97" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="D97" s="28"/>
-      <c r="E97" s="28"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
     </row>
     <row r="98" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="27" t="s">
+      <c r="A98" s="29" t="s">
         <v>134</v>
       </c>
       <c r="B98" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C98" s="29" t="s">
+      <c r="C98" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
+      <c r="D98" s="31"/>
+      <c r="E98" s="31"/>
     </row>
     <row r="99" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="27"/>
+      <c r="A99" s="29"/>
       <c r="B99" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C99" s="28" t="s">
+      <c r="C99" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="D99" s="28"/>
-      <c r="E99" s="28"/>
+      <c r="D99" s="31"/>
+      <c r="E99" s="31"/>
     </row>
     <row r="100" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="27"/>
+      <c r="A100" s="29"/>
       <c r="B100" s="21" t="s">
         <v>136</v>
       </c>
@@ -3165,7 +3165,7 @@
       </c>
     </row>
     <row r="101" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="27"/>
+      <c r="A101" s="29"/>
       <c r="B101" s="21" t="s">
         <v>16</v>
       </c>
@@ -3178,21 +3178,21 @@
       </c>
     </row>
     <row r="105" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="27" t="s">
+      <c r="A105" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="B105" s="27"/>
-      <c r="C105" s="28" t="s">
+      <c r="B105" s="29"/>
+      <c r="C105" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="D105" s="28"/>
-      <c r="E105" s="28"/>
+      <c r="D105" s="31"/>
+      <c r="E105" s="31"/>
     </row>
     <row r="106" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="27" t="s">
+      <c r="A106" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="B106" s="27"/>
+      <c r="B106" s="29"/>
       <c r="C106" s="14" t="s">
         <v>128</v>
       </c>
@@ -3204,42 +3204,42 @@
       </c>
     </row>
     <row r="107" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="27" t="s">
+      <c r="A107" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B107" s="27"/>
-      <c r="C107" s="28" t="s">
+      <c r="B107" s="29"/>
+      <c r="C107" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="D107" s="28"/>
-      <c r="E107" s="28"/>
+      <c r="D107" s="31"/>
+      <c r="E107" s="31"/>
     </row>
     <row r="108" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="27" t="s">
+      <c r="A108" s="29" t="s">
         <v>134</v>
       </c>
       <c r="B108" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C108" s="29" t="s">
+      <c r="C108" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="D108" s="28"/>
-      <c r="E108" s="28"/>
+      <c r="D108" s="31"/>
+      <c r="E108" s="31"/>
     </row>
     <row r="109" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="27"/>
+      <c r="A109" s="29"/>
       <c r="B109" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C109" s="28" t="s">
+      <c r="C109" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="D109" s="28"/>
-      <c r="E109" s="28"/>
+      <c r="D109" s="31"/>
+      <c r="E109" s="31"/>
     </row>
     <row r="110" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="27"/>
+      <c r="A110" s="29"/>
       <c r="B110" s="21" t="s">
         <v>136</v>
       </c>
@@ -3254,7 +3254,7 @@
       </c>
     </row>
     <row r="111" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="27"/>
+      <c r="A111" s="29"/>
       <c r="B111" s="21" t="s">
         <v>16</v>
       </c>
@@ -3267,21 +3267,21 @@
       </c>
     </row>
     <row r="115" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="27" t="s">
+      <c r="A115" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="B115" s="27"/>
-      <c r="C115" s="28" t="s">
+      <c r="B115" s="29"/>
+      <c r="C115" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="D115" s="28"/>
-      <c r="E115" s="28"/>
+      <c r="D115" s="31"/>
+      <c r="E115" s="31"/>
     </row>
     <row r="116" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="27" t="s">
+      <c r="A116" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="B116" s="27"/>
+      <c r="B116" s="29"/>
       <c r="C116" s="14" t="s">
         <v>119</v>
       </c>
@@ -3293,42 +3293,42 @@
       </c>
     </row>
     <row r="117" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="27" t="s">
+      <c r="A117" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B117" s="27"/>
-      <c r="C117" s="28" t="s">
+      <c r="B117" s="29"/>
+      <c r="C117" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="D117" s="28"/>
-      <c r="E117" s="28"/>
+      <c r="D117" s="31"/>
+      <c r="E117" s="31"/>
     </row>
     <row r="118" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="27" t="s">
+      <c r="A118" s="29" t="s">
         <v>134</v>
       </c>
       <c r="B118" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C118" s="29" t="s">
+      <c r="C118" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="D118" s="28"/>
-      <c r="E118" s="28"/>
+      <c r="D118" s="31"/>
+      <c r="E118" s="31"/>
     </row>
     <row r="119" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="27"/>
+      <c r="A119" s="29"/>
       <c r="B119" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C119" s="28" t="s">
+      <c r="C119" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="D119" s="28"/>
-      <c r="E119" s="28"/>
+      <c r="D119" s="31"/>
+      <c r="E119" s="31"/>
     </row>
     <row r="120" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="27"/>
+      <c r="A120" s="29"/>
       <c r="B120" s="21" t="s">
         <v>136</v>
       </c>
@@ -3343,7 +3343,7 @@
       </c>
     </row>
     <row r="121" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="27"/>
+      <c r="A121" s="29"/>
       <c r="B121" s="21" t="s">
         <v>16</v>
       </c>
@@ -3356,21 +3356,21 @@
       </c>
     </row>
     <row r="125" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="27" t="s">
+      <c r="A125" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="B125" s="27"/>
-      <c r="C125" s="28" t="s">
+      <c r="B125" s="29"/>
+      <c r="C125" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="D125" s="28"/>
-      <c r="E125" s="28"/>
+      <c r="D125" s="31"/>
+      <c r="E125" s="31"/>
     </row>
     <row r="126" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="27" t="s">
+      <c r="A126" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="B126" s="27"/>
+      <c r="B126" s="29"/>
       <c r="C126" s="14" t="s">
         <v>120</v>
       </c>
@@ -3382,42 +3382,42 @@
       </c>
     </row>
     <row r="127" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="27" t="s">
+      <c r="A127" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B127" s="27"/>
-      <c r="C127" s="28" t="s">
+      <c r="B127" s="29"/>
+      <c r="C127" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="D127" s="28"/>
-      <c r="E127" s="28"/>
+      <c r="D127" s="31"/>
+      <c r="E127" s="31"/>
     </row>
     <row r="128" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="27" t="s">
+      <c r="A128" s="29" t="s">
         <v>134</v>
       </c>
       <c r="B128" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C128" s="29" t="s">
+      <c r="C128" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="D128" s="28"/>
-      <c r="E128" s="28"/>
+      <c r="D128" s="31"/>
+      <c r="E128" s="31"/>
     </row>
     <row r="129" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="27"/>
+      <c r="A129" s="29"/>
       <c r="B129" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C129" s="28" t="s">
+      <c r="C129" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="D129" s="28"/>
-      <c r="E129" s="28"/>
+      <c r="D129" s="31"/>
+      <c r="E129" s="31"/>
     </row>
     <row r="130" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="27"/>
+      <c r="A130" s="29"/>
       <c r="B130" s="21" t="s">
         <v>136</v>
       </c>
@@ -3432,7 +3432,7 @@
       </c>
     </row>
     <row r="131" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="27"/>
+      <c r="A131" s="29"/>
       <c r="B131" s="21" t="s">
         <v>16</v>
       </c>
@@ -3445,21 +3445,21 @@
       </c>
     </row>
     <row r="135" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="27" t="s">
+      <c r="A135" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="B135" s="27"/>
-      <c r="C135" s="28" t="s">
+      <c r="B135" s="29"/>
+      <c r="C135" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="D135" s="28"/>
-      <c r="E135" s="28"/>
+      <c r="D135" s="31"/>
+      <c r="E135" s="31"/>
     </row>
     <row r="136" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="27" t="s">
+      <c r="A136" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="B136" s="27"/>
+      <c r="B136" s="29"/>
       <c r="C136" s="14" t="s">
         <v>121</v>
       </c>
@@ -3471,42 +3471,42 @@
       </c>
     </row>
     <row r="137" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="27" t="s">
+      <c r="A137" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B137" s="27"/>
-      <c r="C137" s="28" t="s">
+      <c r="B137" s="29"/>
+      <c r="C137" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="D137" s="28"/>
-      <c r="E137" s="28"/>
+      <c r="D137" s="31"/>
+      <c r="E137" s="31"/>
     </row>
     <row r="138" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="27" t="s">
+      <c r="A138" s="29" t="s">
         <v>134</v>
       </c>
       <c r="B138" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C138" s="29" t="s">
+      <c r="C138" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="D138" s="28"/>
-      <c r="E138" s="28"/>
+      <c r="D138" s="31"/>
+      <c r="E138" s="31"/>
     </row>
     <row r="139" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="27"/>
+      <c r="A139" s="29"/>
       <c r="B139" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C139" s="28" t="s">
+      <c r="C139" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="D139" s="28"/>
-      <c r="E139" s="28"/>
+      <c r="D139" s="31"/>
+      <c r="E139" s="31"/>
     </row>
     <row r="140" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="27"/>
+      <c r="A140" s="29"/>
       <c r="B140" s="21" t="s">
         <v>136</v>
       </c>
@@ -3521,7 +3521,7 @@
       </c>
     </row>
     <row r="141" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="27"/>
+      <c r="A141" s="29"/>
       <c r="B141" s="21" t="s">
         <v>16</v>
       </c>
@@ -3534,21 +3534,21 @@
       </c>
     </row>
     <row r="145" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="27" t="s">
+      <c r="A145" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="B145" s="27"/>
-      <c r="C145" s="28" t="s">
+      <c r="B145" s="29"/>
+      <c r="C145" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="D145" s="28"/>
-      <c r="E145" s="28"/>
+      <c r="D145" s="31"/>
+      <c r="E145" s="31"/>
     </row>
     <row r="146" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="27" t="s">
+      <c r="A146" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="B146" s="27"/>
+      <c r="B146" s="29"/>
       <c r="C146" s="14" t="s">
         <v>125</v>
       </c>
@@ -3560,42 +3560,42 @@
       </c>
     </row>
     <row r="147" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="27" t="s">
+      <c r="A147" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B147" s="27"/>
-      <c r="C147" s="28" t="s">
+      <c r="B147" s="29"/>
+      <c r="C147" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="D147" s="28"/>
-      <c r="E147" s="28"/>
+      <c r="D147" s="31"/>
+      <c r="E147" s="31"/>
     </row>
     <row r="148" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="27" t="s">
+      <c r="A148" s="29" t="s">
         <v>134</v>
       </c>
       <c r="B148" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C148" s="29" t="s">
+      <c r="C148" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="D148" s="28"/>
-      <c r="E148" s="28"/>
+      <c r="D148" s="31"/>
+      <c r="E148" s="31"/>
     </row>
     <row r="149" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="27"/>
+      <c r="A149" s="29"/>
       <c r="B149" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C149" s="28" t="s">
+      <c r="C149" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="D149" s="28"/>
-      <c r="E149" s="28"/>
+      <c r="D149" s="31"/>
+      <c r="E149" s="31"/>
     </row>
     <row r="150" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="27"/>
+      <c r="A150" s="29"/>
       <c r="B150" s="21" t="s">
         <v>136</v>
       </c>
@@ -3610,7 +3610,7 @@
       </c>
     </row>
     <row r="151" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="27"/>
+      <c r="A151" s="29"/>
       <c r="B151" s="21" t="s">
         <v>16</v>
       </c>
@@ -3623,21 +3623,21 @@
       </c>
     </row>
     <row r="155" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="27" t="s">
+      <c r="A155" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="B155" s="27"/>
-      <c r="C155" s="28" t="s">
+      <c r="B155" s="29"/>
+      <c r="C155" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="D155" s="28"/>
-      <c r="E155" s="28"/>
+      <c r="D155" s="31"/>
+      <c r="E155" s="31"/>
     </row>
     <row r="156" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="27" t="s">
+      <c r="A156" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="B156" s="27"/>
+      <c r="B156" s="29"/>
       <c r="C156" s="14" t="s">
         <v>122</v>
       </c>
@@ -3649,42 +3649,42 @@
       </c>
     </row>
     <row r="157" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="27" t="s">
+      <c r="A157" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B157" s="27"/>
-      <c r="C157" s="28" t="s">
+      <c r="B157" s="29"/>
+      <c r="C157" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="D157" s="28"/>
-      <c r="E157" s="28"/>
+      <c r="D157" s="31"/>
+      <c r="E157" s="31"/>
     </row>
     <row r="158" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="27" t="s">
+      <c r="A158" s="29" t="s">
         <v>134</v>
       </c>
       <c r="B158" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C158" s="29" t="s">
+      <c r="C158" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="D158" s="28"/>
-      <c r="E158" s="28"/>
+      <c r="D158" s="31"/>
+      <c r="E158" s="31"/>
     </row>
     <row r="159" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="27"/>
+      <c r="A159" s="29"/>
       <c r="B159" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C159" s="28" t="s">
+      <c r="C159" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="D159" s="28"/>
-      <c r="E159" s="28"/>
+      <c r="D159" s="31"/>
+      <c r="E159" s="31"/>
     </row>
     <row r="160" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="27"/>
+      <c r="A160" s="29"/>
       <c r="B160" s="21" t="s">
         <v>136</v>
       </c>
@@ -3699,7 +3699,7 @@
       </c>
     </row>
     <row r="161" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="27"/>
+      <c r="A161" s="29"/>
       <c r="B161" s="21" t="s">
         <v>16</v>
       </c>
@@ -3712,21 +3712,21 @@
       </c>
     </row>
     <row r="165" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="27" t="s">
+      <c r="A165" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="B165" s="27"/>
-      <c r="C165" s="28" t="s">
+      <c r="B165" s="29"/>
+      <c r="C165" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="D165" s="28"/>
-      <c r="E165" s="28"/>
+      <c r="D165" s="31"/>
+      <c r="E165" s="31"/>
     </row>
     <row r="166" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="27" t="s">
+      <c r="A166" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="B166" s="27"/>
+      <c r="B166" s="29"/>
       <c r="C166" s="14" t="s">
         <v>128</v>
       </c>
@@ -3738,42 +3738,42 @@
       </c>
     </row>
     <row r="167" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="27" t="s">
+      <c r="A167" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B167" s="27"/>
-      <c r="C167" s="28" t="s">
+      <c r="B167" s="29"/>
+      <c r="C167" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="D167" s="28"/>
-      <c r="E167" s="28"/>
+      <c r="D167" s="31"/>
+      <c r="E167" s="31"/>
     </row>
     <row r="168" spans="1:8" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="27" t="s">
+      <c r="A168" s="29" t="s">
         <v>134</v>
       </c>
       <c r="B168" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C168" s="29" t="s">
+      <c r="C168" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="D168" s="28"/>
-      <c r="E168" s="28"/>
+      <c r="D168" s="31"/>
+      <c r="E168" s="31"/>
     </row>
     <row r="169" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="27"/>
+      <c r="A169" s="29"/>
       <c r="B169" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C169" s="28" t="s">
+      <c r="C169" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="D169" s="28"/>
-      <c r="E169" s="28"/>
+      <c r="D169" s="31"/>
+      <c r="E169" s="31"/>
     </row>
     <row r="170" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="27"/>
+      <c r="A170" s="29"/>
       <c r="B170" s="21" t="s">
         <v>136</v>
       </c>
@@ -3788,7 +3788,7 @@
       </c>
     </row>
     <row r="171" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="27"/>
+      <c r="A171" s="29"/>
       <c r="B171" s="21" t="s">
         <v>16</v>
       </c>
@@ -3801,33 +3801,33 @@
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A174" s="24" t="s">
+      <c r="A174" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="B174" s="24"/>
-      <c r="C174" s="24"/>
-      <c r="D174" s="24"/>
-      <c r="E174" s="24"/>
-      <c r="F174" s="24"/>
-      <c r="G174" s="24"/>
-      <c r="H174" s="24"/>
+      <c r="B174" s="26"/>
+      <c r="C174" s="26"/>
+      <c r="D174" s="26"/>
+      <c r="E174" s="26"/>
+      <c r="F174" s="26"/>
+      <c r="G174" s="26"/>
+      <c r="H174" s="26"/>
     </row>
     <row r="177" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="27" t="s">
+      <c r="A177" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="B177" s="27"/>
-      <c r="C177" s="28" t="s">
+      <c r="B177" s="29"/>
+      <c r="C177" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="D177" s="28"/>
-      <c r="E177" s="28"/>
+      <c r="D177" s="31"/>
+      <c r="E177" s="31"/>
     </row>
     <row r="178" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="27" t="s">
+      <c r="A178" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="B178" s="27"/>
+      <c r="B178" s="29"/>
       <c r="C178" s="14" t="s">
         <v>190</v>
       </c>
@@ -3839,42 +3839,42 @@
       </c>
     </row>
     <row r="179" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="27" t="s">
+      <c r="A179" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B179" s="27"/>
-      <c r="C179" s="28" t="s">
+      <c r="B179" s="29"/>
+      <c r="C179" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="D179" s="28"/>
-      <c r="E179" s="28"/>
+      <c r="D179" s="31"/>
+      <c r="E179" s="31"/>
     </row>
     <row r="180" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="27" t="s">
+      <c r="A180" s="29" t="s">
         <v>134</v>
       </c>
       <c r="B180" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C180" s="29" t="s">
+      <c r="C180" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="D180" s="28"/>
-      <c r="E180" s="28"/>
+      <c r="D180" s="31"/>
+      <c r="E180" s="31"/>
     </row>
     <row r="181" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="27"/>
+      <c r="A181" s="29"/>
       <c r="B181" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C181" s="28" t="s">
+      <c r="C181" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="D181" s="28"/>
-      <c r="E181" s="28"/>
+      <c r="D181" s="31"/>
+      <c r="E181" s="31"/>
     </row>
     <row r="182" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="27"/>
+      <c r="A182" s="29"/>
       <c r="B182" s="21" t="s">
         <v>136</v>
       </c>
@@ -3889,7 +3889,7 @@
       </c>
     </row>
     <row r="183" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="27"/>
+      <c r="A183" s="29"/>
       <c r="B183" s="21" t="s">
         <v>16</v>
       </c>
@@ -3902,21 +3902,21 @@
       </c>
     </row>
     <row r="187" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="27" t="s">
+      <c r="A187" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="B187" s="27"/>
-      <c r="C187" s="28" t="s">
+      <c r="B187" s="29"/>
+      <c r="C187" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="D187" s="28"/>
-      <c r="E187" s="28"/>
+      <c r="D187" s="31"/>
+      <c r="E187" s="31"/>
     </row>
     <row r="188" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="27" t="s">
+      <c r="A188" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="B188" s="27"/>
+      <c r="B188" s="29"/>
       <c r="C188" s="14" t="s">
         <v>205</v>
       </c>
@@ -3928,42 +3928,42 @@
       </c>
     </row>
     <row r="189" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="27" t="s">
+      <c r="A189" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B189" s="27"/>
-      <c r="C189" s="28" t="s">
+      <c r="B189" s="29"/>
+      <c r="C189" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="D189" s="28"/>
-      <c r="E189" s="28"/>
+      <c r="D189" s="31"/>
+      <c r="E189" s="31"/>
     </row>
     <row r="190" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="27" t="s">
+      <c r="A190" s="29" t="s">
         <v>134</v>
       </c>
       <c r="B190" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C190" s="29" t="s">
+      <c r="C190" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="D190" s="28"/>
-      <c r="E190" s="28"/>
+      <c r="D190" s="31"/>
+      <c r="E190" s="31"/>
     </row>
     <row r="191" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="27"/>
+      <c r="A191" s="29"/>
       <c r="B191" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C191" s="28" t="s">
+      <c r="C191" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="D191" s="28"/>
-      <c r="E191" s="28"/>
+      <c r="D191" s="31"/>
+      <c r="E191" s="31"/>
     </row>
     <row r="192" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="27"/>
+      <c r="A192" s="29"/>
       <c r="B192" s="21" t="s">
         <v>136</v>
       </c>
@@ -3978,7 +3978,7 @@
       </c>
     </row>
     <row r="193" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="27"/>
+      <c r="A193" s="29"/>
       <c r="B193" s="21" t="s">
         <v>16</v>
       </c>
@@ -3992,28 +3992,115 @@
     </row>
   </sheetData>
   <mergeCells count="155">
-    <mergeCell ref="A190:A193"/>
-    <mergeCell ref="C190:E190"/>
-    <mergeCell ref="C191:E191"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="C179:E179"/>
-    <mergeCell ref="A180:A183"/>
-    <mergeCell ref="C180:E180"/>
-    <mergeCell ref="C181:E181"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="C187:E187"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="C189:E189"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="C167:E167"/>
-    <mergeCell ref="A168:A171"/>
-    <mergeCell ref="C168:E168"/>
-    <mergeCell ref="C169:E169"/>
-    <mergeCell ref="A174:H174"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="C177:E177"/>
-    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="C155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="C157:E157"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="C158:E158"/>
+    <mergeCell ref="C159:E159"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="C145:E145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="C147:E147"/>
+    <mergeCell ref="A148:A151"/>
+    <mergeCell ref="C148:E148"/>
+    <mergeCell ref="C149:E149"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:E135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:E137"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="C138:E138"/>
+    <mergeCell ref="C139:E139"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:E125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:E127"/>
+    <mergeCell ref="A128:A131"/>
+    <mergeCell ref="C128:E128"/>
+    <mergeCell ref="C129:E129"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:E117"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="C118:E118"/>
+    <mergeCell ref="C119:E119"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:E107"/>
+    <mergeCell ref="A108:A111"/>
+    <mergeCell ref="C108:E108"/>
+    <mergeCell ref="C109:E109"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:E97"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="A26:B26"/>
@@ -4030,15 +4117,6 @@
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="C45:E45"/>
     <mergeCell ref="A46:B46"/>
@@ -4047,106 +4125,28 @@
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="C49:E49"/>
     <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:E97"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="C98:E98"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="C88:E88"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="C115:E115"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="C117:E117"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="C118:E118"/>
-    <mergeCell ref="C119:E119"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="C105:E105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="C107:E107"/>
-    <mergeCell ref="A108:A111"/>
-    <mergeCell ref="C108:E108"/>
-    <mergeCell ref="C109:E109"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="C135:E135"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="C137:E137"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="C138:E138"/>
-    <mergeCell ref="C139:E139"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="C125:E125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="C127:E127"/>
-    <mergeCell ref="A128:A131"/>
-    <mergeCell ref="C128:E128"/>
-    <mergeCell ref="C129:E129"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="C155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="C157:E157"/>
-    <mergeCell ref="A158:A161"/>
-    <mergeCell ref="C158:E158"/>
-    <mergeCell ref="C159:E159"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="C145:E145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="C147:E147"/>
-    <mergeCell ref="A148:A151"/>
-    <mergeCell ref="C148:E148"/>
-    <mergeCell ref="C149:E149"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="C167:E167"/>
+    <mergeCell ref="A168:A171"/>
+    <mergeCell ref="C168:E168"/>
+    <mergeCell ref="C169:E169"/>
+    <mergeCell ref="A174:H174"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="C177:E177"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="A190:A193"/>
+    <mergeCell ref="C190:E190"/>
+    <mergeCell ref="C191:E191"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="C179:E179"/>
+    <mergeCell ref="A180:A183"/>
+    <mergeCell ref="C180:E180"/>
+    <mergeCell ref="C181:E181"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="C187:E187"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="C189:E189"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4171,83 +4171,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32" t="s">
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32" t="s">
+      <c r="G5" s="38"/>
+      <c r="H5" s="38" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
       <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="32"/>
+      <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -4255,9 +4255,9 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="37"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="35"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -4265,9 +4265,9 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="37"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="35"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -4275,9 +4275,9 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="35"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -4285,9 +4285,9 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="37"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="35"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -4295,9 +4295,9 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="37"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="35"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -4305,9 +4305,9 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -4315,9 +4315,9 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -4325,9 +4325,9 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="37"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="35"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -4335,9 +4335,9 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="37"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="35"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -4345,9 +4345,9 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="37"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="35"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -4355,9 +4355,9 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="37"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="35"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -4365,9 +4365,9 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="37"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -4375,9 +4375,9 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="37"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -4385,9 +4385,9 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="37"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -4395,9 +4395,9 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="37"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -4405,9 +4405,9 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="37"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="35"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -4415,9 +4415,9 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="37"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="35"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -4425,9 +4425,9 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="37"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="35"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -4435,9 +4435,9 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="37"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="35"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -4445,9 +4445,9 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="37"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="35"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -4455,9 +4455,9 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="37"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="35"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -4465,9 +4465,9 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="37"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="35"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -4475,9 +4475,9 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="37"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="35"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -4485,9 +4485,9 @@
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="37"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="35"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -4495,9 +4495,9 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="37"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="35"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -4505,9 +4505,9 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="37"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="35"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -4515,9 +4515,9 @@
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="37"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="35"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -4525,9 +4525,9 @@
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="37"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="35"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -4535,9 +4535,9 @@
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="37"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="35"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -4545,9 +4545,9 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="37"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="35"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -4555,9 +4555,9 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="37"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="35"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -4565,9 +4565,9 @@
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="37"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="35"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -4575,9 +4575,9 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="37"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="35"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -4724,24 +4724,16 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="C5:E6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C10:E10"/>
@@ -4758,16 +4750,24 @@
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="C30:E30"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="C5:E6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4779,7 +4779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FAB9DB2-3407-47D2-A6AC-63EF3EBC3D88}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4792,16 +4792,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
